--- a/Spa Diego/SpaDiego_Analisis/Archivos resultados/CLIENTE MULTI SERVICIO.xlsx
+++ b/Spa Diego/SpaDiego_Analisis/Archivos resultados/CLIENTE MULTI SERVICIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GitHub\Desafio1_DMD\Spa Diego\SpaDiego_Analisis\Archivos resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7BC1A-8DBA-4C18-8A71-3882A48E3A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16190767-0CB2-4156-ABEC-0921D3ACF315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nombre Cliente</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Utiliza Yoga</t>
+  </si>
+  <si>
+    <t>Edad</t>
   </si>
 </sst>
 </file>
@@ -384,18 +387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18.85546875" customWidth="1"/>
+    <col min="1" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:9" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row spans="1:10" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,31 +406,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>AGUISTIN SPERA</t>
+          <t>BELINDA PARKIN</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -437,22 +443,22 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>255.94</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>5.3499999999999996</t>
+          <t>2997.1500000000001</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.6699999999999999</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -466,6 +472,11 @@
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -474,37 +485,37 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>RUBEN BELIN</t>
+          <t>DELORIA GILLEON</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>261.19999999999999</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2996.0300000000002</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.7300000000000004</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -515,43 +526,48 @@
       <c r="I3" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>WINONA EMMINS</t>
+          <t>BERTRANDO ELLICOMBE</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>266.20999999999998</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>1.5800000000000001</t>
+          <t>2991.3400000000001</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.1499999999999999</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -560,6 +576,11 @@
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -568,37 +589,37 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>JULIUS BATTELL</t>
+          <t>SHEFFY FERRERAS</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>275.38</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>6.6900000000000004</t>
+          <t>2985.8200000000002</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.6499999999999999</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -607,6 +628,11 @@
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -615,37 +641,37 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>LAUREN KORBA</t>
+          <t>ROZELLA REDMAN</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>292.31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>2.3999999999999999</t>
+          <t>2965.0599999999999</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.5999999999999996</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
@@ -655,44 +681,49 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>ODEY ERSKINE</t>
+          <t>CARLOTTA AUJEAN</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>347.32999999999998</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>5.4500000000000002</t>
+          <t>2964.5300000000002</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.0199999999999996</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
@@ -702,39 +733,44 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>ROSELINE KILDALE</t>
+          <t>ARABELLE BALE</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>349.05000000000001</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>3.7799999999999998</t>
+          <t>2945.9499999999998</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.4900000000000002</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
@@ -744,10 +780,15 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -756,7 +797,7 @@
     <row outlineLevel="0" r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>SIBBIE SPARROWE</t>
+          <t>AURA MARTEN</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -766,22 +807,22 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>364.38999999999999</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>6.5700000000000003</t>
+          <t>2944.3200000000002</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.9500000000000002</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
@@ -791,10 +832,15 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -803,7 +849,7 @@
     <row outlineLevel="0" r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>TAMI DUNNET</t>
+          <t>GLADYS CARDENAS</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -813,22 +859,22 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>373.75999999999999</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>1.8600000000000001</t>
+          <t>2926.23</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
@@ -842,6 +888,11 @@
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -850,7 +901,7 @@
     <row outlineLevel="0" r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>ALINA EDSON</t>
+          <t>REG NELMES</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -860,27 +911,27 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>400.33999999999997</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>2.8999999999999999</t>
+          <t>2886.75</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.9700000000000002</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -891,43 +942,48 @@
       <c r="I11" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>CREIGHT FELDHEIM</t>
+          <t>ROZANNE KINGSNORTH</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>404.17000000000002</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>6.0599999999999996</t>
+          <t>2834.6700000000001</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.2800000000000002</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
@@ -936,6 +992,11 @@
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -944,7 +1005,7 @@
     <row outlineLevel="0" r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>CHRISTAL MCFFADEN</t>
+          <t>PIERRE MACDUNLEVY</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -954,22 +1015,22 @@
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>410.30000000000001</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
+          <t>2825.9299999999998</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
           <t>5.8099999999999996</t>
         </is>
       </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
@@ -983,6 +1044,11 @@
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -991,7 +1057,7 @@
     <row outlineLevel="0" r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>BARBARAANNE DOERRLING</t>
+          <t>BERNARDINE GEHRICKE</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -1001,22 +1067,22 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>449.98000000000002</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>1.6000000000000001</t>
+          <t>2768.0700000000002</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.4800000000000004</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
@@ -1030,6 +1096,11 @@
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1038,7 +1109,7 @@
     <row outlineLevel="0" r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>JENILEE ARONOV</t>
+          <t>WILLI RINGWOOD</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
@@ -1048,22 +1119,22 @@
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>466.32999999999998</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>3.7400000000000002</t>
+          <t>2726.27</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.8900000000000001</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
@@ -1073,19 +1144,24 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>KEN ZECCHINELLI</t>
+          <t>JOCK SLATER</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
@@ -1095,22 +1171,22 @@
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>515.76999999999998</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>4.6600000000000001</t>
+          <t>2708.8800000000001</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.7599999999999998</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
@@ -1120,57 +1196,67 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>IVER BETHUNE</t>
+          <t>ROSEMARIE HARWELL</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>546.50999999999999</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>5.2000000000000002</t>
+          <t>2703.9200000000001</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.1299999999999999</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1179,7 +1265,7 @@
     <row outlineLevel="0" r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>VIVIENNE PLUM</t>
+          <t>GAEL ROURKE</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
@@ -1189,27 +1275,27 @@
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>576.09000000000003</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>4.2000000000000002</t>
+          <t>2698.6700000000001</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.1500000000000004</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -1219,14 +1305,19 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>AERIELL GLIGORI</t>
+          <t>NORRI BERNLI</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
@@ -1236,22 +1327,22 @@
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>608.07000000000005</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>1.6899999999999999</t>
+          <t>2694.9200000000001</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
@@ -1265,6 +1356,11 @@
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1273,45 +1369,50 @@
     <row outlineLevel="0" r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>FREDRA BROCKLEY</t>
+          <t>MANO MCOWEN</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>639.05999999999995</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>4.3600000000000003</t>
+          <t>2689.3000000000002</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.3500000000000001</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1320,7 +1421,7 @@
     <row outlineLevel="0" r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>JERRY AUSIELLO</t>
+          <t>EADIE LAIDLAW</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
@@ -1330,22 +1431,22 @@
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>654.28999999999996</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>1.9099999999999999</t>
+          <t>2685.2399999999998</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.2300000000000004</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
@@ -1359,6 +1460,11 @@
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -1367,7 +1473,7 @@
     <row outlineLevel="0" r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>PERCEVAL HUNNAWILL</t>
+          <t>DIARMID SCHALL</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
@@ -1377,22 +1483,22 @@
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>708.44000000000005</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>4.2300000000000004</t>
+          <t>2667.0900000000001</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.6699999999999999</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
@@ -1402,10 +1508,15 @@
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1414,7 +1525,7 @@
     <row outlineLevel="0" r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>BROK COKE</t>
+          <t>AMIE OULNER</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
@@ -1424,35 +1535,40 @@
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>725.30999999999995</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>3.8500000000000001</t>
+          <t>2664.3600000000001</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.6200000000000001</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1461,7 +1577,7 @@
     <row outlineLevel="0" r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>ORALIA HICKINBOTTOM</t>
+          <t>LEXINE KINNER</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
@@ -1471,35 +1587,40 @@
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>736.04999999999995</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>2.5899999999999999</t>
+          <t>2624.1199999999999</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1508,7 +1629,7 @@
     <row outlineLevel="0" r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>MAX CHRISTOFFERSEN</t>
+          <t>NIKANIKI DECKER</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
@@ -1518,27 +1639,27 @@
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>774.04999999999995</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>2.7200000000000002</t>
+          <t>2622.4200000000001</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.6600000000000001</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H25" s="0" t="inlineStr">
@@ -1548,14 +1669,19 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>CHRISTAL BANNON</t>
+          <t>GILBERTE BENDUHN</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
@@ -1565,22 +1691,22 @@
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>781.26999999999998</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>6.3399999999999999</t>
+          <t>2595.6300000000001</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.8300000000000001</t>
         </is>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G26" s="0" t="inlineStr">
@@ -1590,10 +1716,15 @@
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1602,37 +1733,37 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>AURTHUR WAPPLINGTON</t>
+          <t>DENYS HAUGER</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>802.05999999999995</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>2.5800000000000001</t>
+          <t>2576.6700000000001</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.4199999999999999</t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H27" s="0" t="inlineStr">
@@ -1643,38 +1774,43 @@
       <c r="I27" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>BAIRD LAGNE</t>
+          <t>BERTHE GROCOCK</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>803.75</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>2.1600000000000001</t>
+          <t>2560.9699999999998</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.3899999999999997</t>
         </is>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G28" s="0" t="inlineStr">
@@ -1688,6 +1824,11 @@
         </is>
       </c>
       <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1696,7 +1837,7 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>SHELLIE LYTLE</t>
+          <t>SHELBA SPIGHT</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
@@ -1706,27 +1847,27 @@
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>809.55999999999995</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>2.3500000000000001</t>
+          <t>2535.2399999999998</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.0300000000000002</t>
         </is>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H29" s="0" t="inlineStr">
@@ -1735,6 +1876,11 @@
         </is>
       </c>
       <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1743,32 +1889,32 @@
     <row outlineLevel="0" r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>HYACINTHIE HALIBURTON</t>
+          <t>BLINNIE GILHESPY</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>821.09000000000003</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>5.2199999999999998</t>
+          <t>2532.52</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.6699999999999999</t>
         </is>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G30" s="0" t="inlineStr">
@@ -1778,10 +1924,15 @@
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1790,37 +1941,37 @@
     <row outlineLevel="0" r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>DEVONNA LE STRANGE</t>
+          <t>EUSTACE LEYTON</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>842.88999999999999</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>6.1200000000000001</t>
+          <t>2520.5900000000001</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H31" s="0" t="inlineStr">
@@ -1830,39 +1981,44 @@
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>RENAUD BROADNICKE</t>
+          <t>FREEMON CUMBERPATCH</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>872.00999999999999</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2515.6300000000001</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5599999999999996</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G32" s="0" t="inlineStr">
@@ -1872,10 +2028,15 @@
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1884,7 +2045,7 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>BARBEY CAIRNEY</t>
+          <t>PIETRO GWALTER</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
@@ -1894,35 +2055,40 @@
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>874.77999999999997</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>2.2200000000000002</t>
+          <t>2511.4200000000001</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.6900000000000004</t>
         </is>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1931,45 +2097,50 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>LEIGHTON LYDIATT</t>
+          <t>DELAINEY KEACH</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>922.49000000000001</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>3.2000000000000002</t>
+          <t>2508.5900000000001</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.1299999999999999</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1978,7 +2149,7 @@
     <row outlineLevel="0" r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>PATRICK BOURGEOIS</t>
+          <t>CORRI HODGINS</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
@@ -1988,22 +2159,22 @@
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>923.92999999999995</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>6.4199999999999999</t>
+          <t>2498.1700000000001</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.2999999999999998</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G35" s="0" t="inlineStr">
@@ -2019,43 +2190,48 @@
       <c r="I35" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>ZACHERIE HALDENBY</t>
+          <t>BIRD TRAUT</t>
         </is>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>924.19000000000005</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>2.1899999999999999</t>
+          <t>2479.27</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.8500000000000001</t>
         </is>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H36" s="0" t="inlineStr">
@@ -2064,6 +2240,11 @@
         </is>
       </c>
       <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2072,7 +2253,7 @@
     <row outlineLevel="0" r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>TAMAR MCGILLREICH</t>
+          <t>TYSON STOVINE</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
@@ -2082,22 +2263,22 @@
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>925.61000000000001</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>4.0599999999999996</t>
+          <t>2476.8699999999999</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.8300000000000001</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G37" s="0" t="inlineStr">
@@ -2113,38 +2294,43 @@
       <c r="I37" s="0" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>FIORENZE LARRATT</t>
+          <t>RAFFERTY BROSKE</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>929.92999999999995</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2439.48</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.2000000000000002</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G38" s="0" t="inlineStr">
@@ -2158,6 +2344,11 @@
         </is>
       </c>
       <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2166,7 +2357,7 @@
     <row outlineLevel="0" r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>EUGEN DUMPHRY</t>
+          <t>MARTI PINNIGAR</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
@@ -2176,22 +2367,22 @@
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>947.88999999999999</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>1.0700000000000001</t>
+          <t>2413.0900000000001</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.3499999999999996</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G39" s="0" t="inlineStr">
@@ -2201,10 +2392,15 @@
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2213,32 +2409,32 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>JESSICA DUDDING</t>
+          <t>RYAN HUITSON</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>988.99000000000001</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>3.7200000000000002</t>
+          <t>2363.8600000000001</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.2400000000000002</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G40" s="0" t="inlineStr">
@@ -2248,10 +2444,15 @@
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2260,7 +2461,7 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>DANNA PINOCK</t>
+          <t>THOMA MCPEAKE</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
@@ -2270,22 +2471,22 @@
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>1022.08</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>4.6100000000000003</t>
+          <t>2363.21</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.3300000000000001</t>
         </is>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G41" s="0" t="inlineStr">
@@ -2299,6 +2500,11 @@
         </is>
       </c>
       <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2307,32 +2513,32 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>TIENA TWEEDY</t>
+          <t>BART OTY</t>
         </is>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>1036.1800000000001</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>5.5199999999999996</t>
+          <t>2343.6700000000001</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.8900000000000001</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G42" s="0" t="inlineStr">
@@ -2346,6 +2552,11 @@
         </is>
       </c>
       <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2354,32 +2565,32 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>SHARAI TRAIL</t>
+          <t>REID HENRICHSEN</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>1085.1400000000001</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>2.2799999999999998</t>
+          <t>2327.3899999999999</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G43" s="0" t="inlineStr">
@@ -2389,10 +2600,15 @@
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2401,32 +2617,32 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>KRISTEN CASSIN</t>
+          <t>RINA CARNELL</t>
         </is>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>1092.45</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>3.8599999999999999</t>
+          <t>2296.4899999999998</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.0300000000000002</t>
         </is>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G44" s="0" t="inlineStr">
@@ -2440,6 +2656,11 @@
         </is>
       </c>
       <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2448,7 +2669,7 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>EMMALYN DUFFUS</t>
+          <t>BIL GETSHAM</t>
         </is>
       </c>
       <c r="B45" s="0" t="inlineStr">
@@ -2458,22 +2679,22 @@
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>1093.76</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>1.1499999999999999</t>
+          <t>2280.5700000000002</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.6600000000000001</t>
         </is>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G45" s="0" t="inlineStr">
@@ -2483,49 +2704,54 @@
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>HALLI JANJIC</t>
+          <t>CHRISTIN GILLCRIST</t>
         </is>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>1114.3699999999999</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>4.6100000000000003</t>
+          <t>2274.8800000000001</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.2400000000000002</t>
         </is>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G46" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H46" s="0" t="inlineStr">
@@ -2536,13 +2762,18 @@
       <c r="I46" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J46" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>PHIL WADWORTH</t>
+          <t>BENEDETTO CROKER</t>
         </is>
       </c>
       <c r="B47" s="0" t="inlineStr">
@@ -2552,22 +2783,22 @@
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>1125.1500000000001</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>6.1299999999999999</t>
+          <t>2164.23</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.0700000000000003</t>
         </is>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G47" s="0" t="inlineStr">
@@ -2581,6 +2812,11 @@
         </is>
       </c>
       <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2589,32 +2825,32 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>CARLYE GLADDIS</t>
+          <t>DAMIANO MASSON</t>
         </is>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>1135.1500000000001</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>5.6100000000000003</t>
+          <t>2158.23</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.2400000000000002</t>
         </is>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G48" s="0" t="inlineStr">
@@ -2628,6 +2864,11 @@
         </is>
       </c>
       <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J48" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -2636,7 +2877,7 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>LUCKY PASHLER</t>
+          <t>GRISWOLD GOODBAND</t>
         </is>
       </c>
       <c r="B49" s="0" t="inlineStr">
@@ -2646,22 +2887,22 @@
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>1137.3299999999999</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>4.6699999999999999</t>
+          <t>2113.8800000000001</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G49" s="0" t="inlineStr">
@@ -2675,6 +2916,11 @@
         </is>
       </c>
       <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2683,7 +2929,7 @@
     <row outlineLevel="0" r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>PATTY TARGE</t>
+          <t>FLORENZA FULLBROOK</t>
         </is>
       </c>
       <c r="B50" s="0" t="inlineStr">
@@ -2693,27 +2939,27 @@
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>1144.53</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>2110.4299999999998</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.2400000000000002</t>
         </is>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G50" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H50" s="0" t="inlineStr">
@@ -2724,38 +2970,43 @@
       <c r="I50" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>EL MURFETT</t>
+          <t>JAYMIE MCGREIL</t>
         </is>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>1152.5799999999999</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>4.0599999999999996</t>
+          <t>2087.8600000000001</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.9100000000000001</t>
         </is>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G51" s="0" t="inlineStr">
@@ -2769,6 +3020,11 @@
         </is>
       </c>
       <c r="I51" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2777,7 +3033,7 @@
     <row outlineLevel="0" r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>EMMETT GUESS</t>
+          <t>RENAE LAMMERS</t>
         </is>
       </c>
       <c r="B52" s="0" t="inlineStr">
@@ -2787,22 +3043,22 @@
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>1154.8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>1.5600000000000001</t>
+          <t>2080.7399999999998</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.3100000000000001</t>
         </is>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G52" s="0" t="inlineStr">
@@ -2816,6 +3072,11 @@
         </is>
       </c>
       <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2824,32 +3085,32 @@
     <row outlineLevel="0" r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>ETHELINE WOLFENDEN</t>
+          <t>ABELARD CASSIN</t>
         </is>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>1157.1199999999999</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2077.9299999999998</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.8499999999999996</t>
         </is>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G53" s="0" t="inlineStr">
@@ -2859,10 +3120,15 @@
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I53" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2871,7 +3137,7 @@
     <row outlineLevel="0" r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>CYNTHY CRICH</t>
+          <t>DEEANN GADAULT</t>
         </is>
       </c>
       <c r="B54" s="0" t="inlineStr">
@@ -2881,22 +3147,22 @@
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>1175.45</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>6.8799999999999999</t>
+          <t>2058.29</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.9199999999999999</t>
         </is>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G54" s="0" t="inlineStr">
@@ -2906,10 +3172,15 @@
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I54" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J54" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2918,7 +3189,7 @@
     <row outlineLevel="0" r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>MELESA HARBERTSON</t>
+          <t>ARCHY CAWTHRY</t>
         </is>
       </c>
       <c r="B55" s="0" t="inlineStr">
@@ -2928,27 +3199,27 @@
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>1177.6199999999999</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>6.1200000000000001</t>
+          <t>2031.0599999999999</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.3199999999999998</t>
         </is>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G55" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H55" s="0" t="inlineStr">
@@ -2957,6 +3228,11 @@
         </is>
       </c>
       <c r="I55" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -2965,7 +3241,7 @@
     <row outlineLevel="0" r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>KELBY CANWELL</t>
+          <t>RAYNELL KILLOUGH</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
@@ -2975,27 +3251,27 @@
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>1183.9100000000001</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1985.0599999999999</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.1099999999999999</t>
         </is>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G56" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H56" s="0" t="inlineStr">
@@ -3005,14 +3281,19 @@
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>FRANCKLIN DRUCE</t>
+          <t>MINNNIE HEINIG</t>
         </is>
       </c>
       <c r="B57" s="0" t="inlineStr">
@@ -3022,22 +3303,22 @@
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>1250.4200000000001</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1983.97</t>
         </is>
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.5599999999999996</t>
         </is>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G57" s="0" t="inlineStr">
@@ -3053,38 +3334,43 @@
       <c r="I57" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>BEVERLEY SEVERS</t>
+          <t>JESSICA KUHN</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>1275.4200000000001</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>1.3400000000000001</t>
+          <t>1964.1099999999999</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.2999999999999998</t>
         </is>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G58" s="0" t="inlineStr">
@@ -3098,6 +3384,11 @@
         </is>
       </c>
       <c r="I58" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -3106,37 +3397,37 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>ELISHA OHANESSIAN</t>
+          <t>RODI REAPE</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>1276.5699999999999</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>2.3599999999999999</t>
+          <t>1957.3</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.6600000000000001</t>
         </is>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H59" s="0" t="inlineStr">
@@ -3147,38 +3438,43 @@
       <c r="I59" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J59" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>RYLEY BODLEIGH</t>
+          <t>RUGGIERO BROSNAN</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>1334.45</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1945.4400000000001</t>
         </is>
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.9199999999999999</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G60" s="0" t="inlineStr">
@@ -3194,43 +3490,48 @@
       <c r="I60" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J60" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>SERENE HASEMAN</t>
+          <t>CHASE MCMANUS</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>1348.1600000000001</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>5.1900000000000004</t>
+          <t>1945.28</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G61" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H61" s="0" t="inlineStr">
@@ -3240,14 +3541,19 @@
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J61" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>DEBBI TURTLE</t>
+          <t>MARGA KILEY</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
@@ -3257,27 +3563,27 @@
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>1446.8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>2.1200000000000001</t>
+          <t>1945.1600000000001</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.3600000000000003</t>
         </is>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G62" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H62" s="0" t="inlineStr">
@@ -3286,6 +3592,11 @@
         </is>
       </c>
       <c r="I62" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J62" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3294,7 +3605,7 @@
     <row outlineLevel="0" r="63">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>ANGELITA JAQUEMAR</t>
+          <t>EARVIN FOURACRE</t>
         </is>
       </c>
       <c r="B63" s="0" t="inlineStr">
@@ -3304,22 +3615,22 @@
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>1458.8399999999999</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>2.8199999999999998</t>
+          <t>1909.21</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.2999999999999998</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
@@ -3329,10 +3640,15 @@
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J63" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3341,7 +3657,7 @@
     <row outlineLevel="0" r="64">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>TILLIE FERNEYHOUGH</t>
+          <t>TALYA OWNSWORTH</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
@@ -3351,22 +3667,22 @@
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>1498.53</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>5.1200000000000001</t>
+          <t>1866.6500000000001</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.3600000000000001</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G64" s="0" t="inlineStr">
@@ -3380,6 +3696,11 @@
         </is>
       </c>
       <c r="I64" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J64" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3388,7 +3709,7 @@
     <row outlineLevel="0" r="65">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>RUTHANNE ANDRZEJCZAK</t>
+          <t>EDLIN RIMMER</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
@@ -3398,27 +3719,27 @@
       </c>
       <c r="C65" s="0" t="inlineStr">
         <is>
-          <t>1502.01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>6.1699999999999999</t>
+          <t>1856.3800000000001</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.0899999999999999</t>
         </is>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G65" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H65" s="0" t="inlineStr">
@@ -3427,6 +3748,11 @@
         </is>
       </c>
       <c r="I65" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J65" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3435,32 +3761,32 @@
     <row outlineLevel="0" r="66">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>CARMELLA SOLWAY</t>
+          <t>HILDAGARDE CAULKETT</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
-          <t>1526.3299999999999</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>2.8799999999999999</t>
+          <t>1847.22</t>
         </is>
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.7199999999999998</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
@@ -3474,6 +3800,11 @@
         </is>
       </c>
       <c r="I66" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J66" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -3482,32 +3813,32 @@
     <row outlineLevel="0" r="67">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>TERENCE WHISSELL</t>
+          <t>ROSALINDE EDMONS</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t>1536.6500000000001</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>1.6200000000000001</t>
+          <t>1839.25</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.7199999999999998</t>
         </is>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
@@ -3521,6 +3852,11 @@
         </is>
       </c>
       <c r="I67" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J67" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3529,7 +3865,7 @@
     <row outlineLevel="0" r="68">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>HAMNET LINDENBERG</t>
+          <t>ARMIN CANO</t>
         </is>
       </c>
       <c r="B68" s="0" t="inlineStr">
@@ -3539,22 +3875,22 @@
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>1577.9300000000001</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>2.4399999999999999</t>
+          <t>1837.0899999999999</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.0700000000000001</t>
         </is>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G68" s="0" t="inlineStr">
@@ -3564,44 +3900,49 @@
       </c>
       <c r="H68" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I68" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J68" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>LUDOVICO PADRICK</t>
+          <t>CAIRISTIONA DAVIDDE</t>
         </is>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>1579.5699999999999</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>5.6299999999999999</t>
+          <t>1834.51</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.4299999999999997</t>
         </is>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
@@ -3615,6 +3956,11 @@
         </is>
       </c>
       <c r="I69" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J69" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3623,7 +3969,7 @@
     <row outlineLevel="0" r="70">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>DOMENIC NOVKOVIC</t>
+          <t>BRIGGS ASPLAND</t>
         </is>
       </c>
       <c r="B70" s="0" t="inlineStr">
@@ -3633,22 +3979,22 @@
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
-          <t>1593.1900000000001</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>5.5899999999999999</t>
+          <t>1829.46</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.8400000000000001</t>
         </is>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G70" s="0" t="inlineStr">
@@ -3658,10 +4004,15 @@
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I70" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J70" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3670,7 +4021,7 @@
     <row outlineLevel="0" r="71">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>ROCKY ROBERTACCI</t>
+          <t>PETE GILLINGHAM</t>
         </is>
       </c>
       <c r="B71" s="0" t="inlineStr">
@@ -3680,22 +4031,22 @@
       </c>
       <c r="C71" s="0" t="inlineStr">
         <is>
-          <t>1593.4400000000001</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>5.4800000000000004</t>
+          <t>1818.79</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G71" s="0" t="inlineStr">
@@ -3709,6 +4060,11 @@
         </is>
       </c>
       <c r="I71" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -3717,32 +4073,32 @@
     <row outlineLevel="0" r="72">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>ROIS BUST</t>
+          <t>IMOJEAN LARRATT</t>
         </is>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>1599.55</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>2.5299999999999998</t>
+          <t>1806.02</t>
         </is>
       </c>
       <c r="E72" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.0999999999999996</t>
         </is>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G72" s="0" t="inlineStr">
@@ -3752,10 +4108,15 @@
       </c>
       <c r="H72" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I72" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J72" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3764,7 +4125,7 @@
     <row outlineLevel="0" r="73">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>FLOSSY WICKLIN</t>
+          <t>ABBI BOYDA</t>
         </is>
       </c>
       <c r="B73" s="0" t="inlineStr">
@@ -3774,27 +4135,27 @@
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>1616.48</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>5.8300000000000001</t>
+          <t>1803.3399999999999</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.6299999999999999</t>
         </is>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H73" s="0" t="inlineStr">
@@ -3803,6 +4164,11 @@
         </is>
       </c>
       <c r="I73" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J73" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3811,37 +4177,37 @@
     <row outlineLevel="0" r="74">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>ARABELLA HARDIN</t>
+          <t>MARIJN MACCAMBRIDGE</t>
         </is>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
-          <t>1626.0699999999999</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>2.6400000000000001</t>
+          <t>1782.95</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.0800000000000001</t>
         </is>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G74" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H74" s="0" t="inlineStr">
@@ -3852,38 +4218,43 @@
       <c r="I74" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>NETTI GYURKO</t>
+          <t>BRANDER TODARINI</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C75" s="0" t="inlineStr">
         <is>
-          <t>1638.47</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>4.1500000000000004</t>
+          <t>1774</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.5199999999999996</t>
         </is>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G75" s="0" t="inlineStr">
@@ -3897,6 +4268,11 @@
         </is>
       </c>
       <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J75" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -3905,32 +4281,32 @@
     <row outlineLevel="0" r="76">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>KOO ROTTGER</t>
+          <t>HARRI HAPS</t>
         </is>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C76" s="0" t="inlineStr">
         <is>
-          <t>1660.79</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1763.8299999999999</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4300000000000002</t>
         </is>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G76" s="0" t="inlineStr">
@@ -3946,38 +4322,43 @@
       <c r="I76" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J76" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>ORTENSIA KRUSCHEV</t>
+          <t>DRUGI ENRIQUEZ</t>
         </is>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>1671.9300000000001</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>2.1699999999999999</t>
+          <t>1748.8</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.7000000000000002</t>
         </is>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G77" s="0" t="inlineStr">
@@ -3987,19 +4368,24 @@
       </c>
       <c r="H77" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I77" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J77" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>TIFFANIE ALLDRED</t>
+          <t>GISELBERT ASHFORD</t>
         </is>
       </c>
       <c r="B78" s="0" t="inlineStr">
@@ -4009,22 +4395,22 @@
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>1678.0799999999999</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1743.8099999999999</t>
         </is>
       </c>
       <c r="E78" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.0099999999999998</t>
         </is>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G78" s="0" t="inlineStr">
@@ -4040,38 +4426,43 @@
       <c r="I78" s="0" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+      <c r="J78" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>EMMYE JOHANNESSON</t>
+          <t>RHIAMON TRETHOWAN</t>
         </is>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C79" s="0" t="inlineStr">
         <is>
-          <t>1679.8099999999999</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>4.5300000000000002</t>
+          <t>1738.6900000000001</t>
         </is>
       </c>
       <c r="E79" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.2699999999999996</t>
         </is>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G79" s="0" t="inlineStr">
@@ -4085,6 +4476,11 @@
         </is>
       </c>
       <c r="I79" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J79" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4093,7 +4489,7 @@
     <row outlineLevel="0" r="80">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>TEDD KNAPPEN</t>
+          <t>CAL RUBEE</t>
         </is>
       </c>
       <c r="B80" s="0" t="inlineStr">
@@ -4103,35 +4499,40 @@
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>1696.28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>5.6100000000000003</t>
+          <t>1735.3800000000001</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.0999999999999996</t>
         </is>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G80" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J80" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4140,32 +4541,32 @@
     <row outlineLevel="0" r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>STACEE CANSFIELD</t>
+          <t>DANE BROMET</t>
         </is>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C81" s="0" t="inlineStr">
         <is>
-          <t>1708.0999999999999</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>5.9400000000000004</t>
+          <t>1726.3599999999999</t>
         </is>
       </c>
       <c r="E81" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.3500000000000001</t>
         </is>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G81" s="0" t="inlineStr">
@@ -4175,12 +4576,17 @@
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I81" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J81" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -4197,27 +4603,27 @@
       </c>
       <c r="C82" s="0" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
           <t>1713.76</t>
         </is>
       </c>
-      <c r="D82" s="0" t="inlineStr">
+      <c r="E82" s="0" t="inlineStr">
         <is>
           <t>6.5300000000000002</t>
         </is>
       </c>
-      <c r="E82" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G82" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H82" s="0" t="inlineStr">
@@ -4226,6 +4632,11 @@
         </is>
       </c>
       <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J82" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4234,32 +4645,32 @@
     <row outlineLevel="0" r="83">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>DANE BROMET</t>
+          <t>STACEE CANSFIELD</t>
         </is>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C83" s="0" t="inlineStr">
         <is>
-          <t>1726.3599999999999</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>1.3500000000000001</t>
+          <t>1708.0999999999999</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.9400000000000004</t>
         </is>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G83" s="0" t="inlineStr">
@@ -4275,13 +4686,18 @@
       <c r="I83" s="0" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+      <c r="J83" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>CAL RUBEE</t>
+          <t>TEDD KNAPPEN</t>
         </is>
       </c>
       <c r="B84" s="0" t="inlineStr">
@@ -4291,22 +4707,22 @@
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>1735.3800000000001</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>6.0999999999999996</t>
+          <t>1696.28</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.6100000000000003</t>
         </is>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G84" s="0" t="inlineStr">
@@ -4320,6 +4736,11 @@
         </is>
       </c>
       <c r="I84" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J84" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4328,32 +4749,32 @@
     <row outlineLevel="0" r="85">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>RHIAMON TRETHOWAN</t>
+          <t>EMMYE JOHANNESSON</t>
         </is>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>1738.6900000000001</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>6.2699999999999996</t>
+          <t>1679.8099999999999</t>
         </is>
       </c>
       <c r="E85" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5300000000000002</t>
         </is>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G85" s="0" t="inlineStr">
@@ -4363,10 +4784,15 @@
       </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I85" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J85" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4375,7 +4801,7 @@
     <row outlineLevel="0" r="86">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>GISELBERT ASHFORD</t>
+          <t>TIFFANIE ALLDRED</t>
         </is>
       </c>
       <c r="B86" s="0" t="inlineStr">
@@ -4385,22 +4811,22 @@
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>1743.8099999999999</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
-          <t>2.0099999999999998</t>
+          <t>1678.0799999999999</t>
         </is>
       </c>
       <c r="E86" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G86" s="0" t="inlineStr">
@@ -4410,44 +4836,49 @@
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I86" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J86" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>DRUGI ENRIQUEZ</t>
+          <t>ORTENSIA KRUSCHEV</t>
         </is>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>1748.8</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>3.7000000000000002</t>
+          <t>1671.9300000000001</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.1699999999999999</t>
         </is>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
@@ -4463,43 +4894,48 @@
       <c r="I87" s="0" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+      <c r="J87" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>HARRI HAPS</t>
+          <t>KOO ROTTGER</t>
         </is>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>1763.8299999999999</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>2.4300000000000002</t>
+          <t>1660.79</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H88" s="0" t="inlineStr">
@@ -4509,44 +4945,49 @@
       </c>
       <c r="I88" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J88" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>BRANDER TODARINI</t>
+          <t>NETTI GYURKO</t>
         </is>
       </c>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>1774</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>6.5199999999999996</t>
+          <t>1638.47</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.1500000000000004</t>
         </is>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G89" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H89" s="0" t="inlineStr">
@@ -4555,6 +4996,11 @@
         </is>
       </c>
       <c r="I89" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J89" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4563,32 +5009,32 @@
     <row outlineLevel="0" r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>MARIJN MACCAMBRIDGE</t>
+          <t>ARABELLA HARDIN</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>1782.95</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>2.0800000000000001</t>
+          <t>1626.0699999999999</t>
         </is>
       </c>
       <c r="E90" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.6400000000000001</t>
         </is>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G90" s="0" t="inlineStr">
@@ -4598,19 +5044,24 @@
       </c>
       <c r="H90" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I90" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J90" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>ABBI BOYDA</t>
+          <t>FLOSSY WICKLIN</t>
         </is>
       </c>
       <c r="B91" s="0" t="inlineStr">
@@ -4620,22 +5071,22 @@
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>1803.3399999999999</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>3.6299999999999999</t>
+          <t>1616.48</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.8300000000000001</t>
         </is>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G91" s="0" t="inlineStr">
@@ -4649,6 +5100,11 @@
         </is>
       </c>
       <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J91" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4657,32 +5113,32 @@
     <row outlineLevel="0" r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>IMOJEAN LARRATT</t>
+          <t>ROIS BUST</t>
         </is>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>1806.02</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>6.0999999999999996</t>
+          <t>1599.55</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5299999999999998</t>
         </is>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G92" s="0" t="inlineStr">
@@ -4692,10 +5148,15 @@
       </c>
       <c r="H92" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J92" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4704,7 +5165,7 @@
     <row outlineLevel="0" r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>PETE GILLINGHAM</t>
+          <t>ROCKY ROBERTACCI</t>
         </is>
       </c>
       <c r="B93" s="0" t="inlineStr">
@@ -4714,22 +5175,22 @@
       </c>
       <c r="C93" s="0" t="inlineStr">
         <is>
-          <t>1818.79</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D93" s="0" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1593.4400000000001</t>
         </is>
       </c>
       <c r="E93" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.4800000000000004</t>
         </is>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G93" s="0" t="inlineStr">
@@ -4743,6 +5204,11 @@
         </is>
       </c>
       <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J93" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -4751,7 +5217,7 @@
     <row outlineLevel="0" r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>BRIGGS ASPLAND</t>
+          <t>DOMENIC NOVKOVIC</t>
         </is>
       </c>
       <c r="B94" s="0" t="inlineStr">
@@ -4761,22 +5227,22 @@
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
-          <t>1829.46</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>1.8400000000000001</t>
+          <t>1593.1900000000001</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.5899999999999999</t>
         </is>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G94" s="0" t="inlineStr">
@@ -4786,10 +5252,15 @@
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I94" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J94" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4798,37 +5269,37 @@
     <row outlineLevel="0" r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>CAIRISTIONA DAVIDDE</t>
+          <t>LUDOVICO PADRICK</t>
         </is>
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>1834.51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>4.4299999999999997</t>
+          <t>1579.5699999999999</t>
         </is>
       </c>
       <c r="E95" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.6299999999999999</t>
         </is>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G95" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H95" s="0" t="inlineStr">
@@ -4837,6 +5308,11 @@
         </is>
       </c>
       <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J95" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4845,7 +5321,7 @@
     <row outlineLevel="0" r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>ARMIN CANO</t>
+          <t>HAMNET LINDENBERG</t>
         </is>
       </c>
       <c r="B96" s="0" t="inlineStr">
@@ -4855,27 +5331,27 @@
       </c>
       <c r="C96" s="0" t="inlineStr">
         <is>
-          <t>1837.0899999999999</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>1.0700000000000001</t>
+          <t>1577.9300000000001</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.4399999999999999</t>
         </is>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G96" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H96" s="0" t="inlineStr">
@@ -4886,38 +5362,43 @@
       <c r="I96" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>ROSALINDE EDMONS</t>
+          <t>TERENCE WHISSELL</t>
         </is>
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>1839.25</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>5.7199999999999998</t>
+          <t>1536.6500000000001</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.6200000000000001</t>
         </is>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G97" s="0" t="inlineStr">
@@ -4927,10 +5408,15 @@
       </c>
       <c r="H97" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I97" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -4939,32 +5425,32 @@
     <row outlineLevel="0" r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>HILDAGARDE CAULKETT</t>
+          <t>CARMELLA SOLWAY</t>
         </is>
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C98" s="0" t="inlineStr">
         <is>
-          <t>1847.22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D98" s="0" t="inlineStr">
         <is>
-          <t>5.7199999999999998</t>
+          <t>1526.3299999999999</t>
         </is>
       </c>
       <c r="E98" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.8799999999999999</t>
         </is>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G98" s="0" t="inlineStr">
@@ -4978,6 +5464,11 @@
         </is>
       </c>
       <c r="I98" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J98" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -4986,7 +5477,7 @@
     <row outlineLevel="0" r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>EDLIN RIMMER</t>
+          <t>RUTHANNE ANDRZEJCZAK</t>
         </is>
       </c>
       <c r="B99" s="0" t="inlineStr">
@@ -4996,27 +5487,27 @@
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>1856.3800000000001</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>2.0899999999999999</t>
+          <t>1502.01</t>
         </is>
       </c>
       <c r="E99" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.1699999999999999</t>
         </is>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G99" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H99" s="0" t="inlineStr">
@@ -5025,6 +5516,11 @@
         </is>
       </c>
       <c r="I99" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J99" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5033,7 +5529,7 @@
     <row outlineLevel="0" r="100">
       <c r="A100" s="0" t="inlineStr">
         <is>
-          <t>TALYA OWNSWORTH</t>
+          <t>TILLIE FERNEYHOUGH</t>
         </is>
       </c>
       <c r="B100" s="0" t="inlineStr">
@@ -5043,27 +5539,27 @@
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>1866.6500000000001</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>1.3600000000000001</t>
+          <t>1498.53</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.1200000000000001</t>
         </is>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G100" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H100" s="0" t="inlineStr">
@@ -5072,6 +5568,11 @@
         </is>
       </c>
       <c r="I100" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J100" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5080,7 +5581,7 @@
     <row outlineLevel="0" r="101">
       <c r="A101" s="0" t="inlineStr">
         <is>
-          <t>EARVIN FOURACRE</t>
+          <t>ANGELITA JAQUEMAR</t>
         </is>
       </c>
       <c r="B101" s="0" t="inlineStr">
@@ -5090,22 +5591,22 @@
       </c>
       <c r="C101" s="0" t="inlineStr">
         <is>
-          <t>1909.21</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>3.2999999999999998</t>
+          <t>1458.8399999999999</t>
         </is>
       </c>
       <c r="E101" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.8199999999999998</t>
         </is>
       </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G101" s="0" t="inlineStr">
@@ -5115,10 +5616,15 @@
       </c>
       <c r="H101" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5127,7 +5633,7 @@
     <row outlineLevel="0" r="102">
       <c r="A102" s="0" t="inlineStr">
         <is>
-          <t>MARGA KILEY</t>
+          <t>DEBBI TURTLE</t>
         </is>
       </c>
       <c r="B102" s="0" t="inlineStr">
@@ -5137,22 +5643,22 @@
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>1945.1600000000001</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>6.3600000000000003</t>
+          <t>1446.8</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.1200000000000001</t>
         </is>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G102" s="0" t="inlineStr">
@@ -5166,6 +5672,11 @@
         </is>
       </c>
       <c r="I102" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J102" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5174,32 +5685,32 @@
     <row outlineLevel="0" r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>CHASE MCMANUS</t>
+          <t>SERENE HASEMAN</t>
         </is>
       </c>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>1945.28</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1348.1600000000001</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.1900000000000004</t>
         </is>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G103" s="0" t="inlineStr">
@@ -5215,43 +5726,48 @@
       <c r="I103" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J103" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>RUGGIERO BROSNAN</t>
+          <t>RYLEY BODLEIGH</t>
         </is>
       </c>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>1945.4400000000001</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>5.9199999999999999</t>
+          <t>1334.45</t>
         </is>
       </c>
       <c r="E104" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="F104" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G104" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H104" s="0" t="inlineStr">
@@ -5261,39 +5777,44 @@
       </c>
       <c r="I104" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J104" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>RODI REAPE</t>
+          <t>ELISHA OHANESSIAN</t>
         </is>
       </c>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C105" s="0" t="inlineStr">
         <is>
-          <t>1957.3</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>6.6600000000000001</t>
+          <t>1276.5699999999999</t>
         </is>
       </c>
       <c r="E105" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.3599999999999999</t>
         </is>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G105" s="0" t="inlineStr">
@@ -5303,44 +5824,49 @@
       </c>
       <c r="H105" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I105" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J105" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>JESSICA KUHN</t>
+          <t>BEVERLEY SEVERS</t>
         </is>
       </c>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C106" s="0" t="inlineStr">
         <is>
-          <t>1964.1099999999999</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D106" s="0" t="inlineStr">
         <is>
-          <t>2.2999999999999998</t>
+          <t>1275.4200000000001</t>
         </is>
       </c>
       <c r="E106" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.3400000000000001</t>
         </is>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G106" s="0" t="inlineStr">
@@ -5354,6 +5880,11 @@
         </is>
       </c>
       <c r="I106" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J106" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -5362,7 +5893,7 @@
     <row outlineLevel="0" r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>MINNNIE HEINIG</t>
+          <t>FRANCKLIN DRUCE</t>
         </is>
       </c>
       <c r="B107" s="0" t="inlineStr">
@@ -5372,27 +5903,27 @@
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>1983.97</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>6.5599999999999996</t>
+          <t>1250.4200000000001</t>
         </is>
       </c>
       <c r="E107" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G107" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H107" s="0" t="inlineStr">
@@ -5402,14 +5933,19 @@
       </c>
       <c r="I107" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J107" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="108">
       <c r="A108" s="0" t="inlineStr">
         <is>
-          <t>RAYNELL KILLOUGH</t>
+          <t>KELBY CANWELL</t>
         </is>
       </c>
       <c r="B108" s="0" t="inlineStr">
@@ -5419,22 +5955,22 @@
       </c>
       <c r="C108" s="0" t="inlineStr">
         <is>
-          <t>1985.0599999999999</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
-          <t>2.1099999999999999</t>
+          <t>1183.9100000000001</t>
         </is>
       </c>
       <c r="E108" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="F108" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G108" s="0" t="inlineStr">
@@ -5450,13 +5986,18 @@
       <c r="I108" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J108" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="109">
       <c r="A109" s="0" t="inlineStr">
         <is>
-          <t>ARCHY CAWTHRY</t>
+          <t>MELESA HARBERTSON</t>
         </is>
       </c>
       <c r="B109" s="0" t="inlineStr">
@@ -5466,22 +6007,22 @@
       </c>
       <c r="C109" s="0" t="inlineStr">
         <is>
-          <t>2031.0599999999999</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>2.3199999999999998</t>
+          <t>1177.6199999999999</t>
         </is>
       </c>
       <c r="E109" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.1200000000000001</t>
         </is>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G109" s="0" t="inlineStr">
@@ -5495,6 +6036,11 @@
         </is>
       </c>
       <c r="I109" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J109" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5503,7 +6049,7 @@
     <row outlineLevel="0" r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
-          <t>DEEANN GADAULT</t>
+          <t>CYNTHY CRICH</t>
         </is>
       </c>
       <c r="B110" s="0" t="inlineStr">
@@ -5513,22 +6059,22 @@
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>2058.29</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
-          <t>5.9199999999999999</t>
+          <t>1175.45</t>
         </is>
       </c>
       <c r="E110" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.8799999999999999</t>
         </is>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G110" s="0" t="inlineStr">
@@ -5538,10 +6084,15 @@
       </c>
       <c r="H110" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I110" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J110" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5550,32 +6101,32 @@
     <row outlineLevel="0" r="111">
       <c r="A111" s="0" t="inlineStr">
         <is>
-          <t>ABELARD CASSIN</t>
+          <t>ETHELINE WOLFENDEN</t>
         </is>
       </c>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>2077.9299999999998</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>6.8499999999999996</t>
+          <t>1157.1199999999999</t>
         </is>
       </c>
       <c r="E111" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G111" s="0" t="inlineStr">
@@ -5585,10 +6136,15 @@
       </c>
       <c r="H111" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I111" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J111" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5597,7 +6153,7 @@
     <row outlineLevel="0" r="112">
       <c r="A112" s="0" t="inlineStr">
         <is>
-          <t>RENAE LAMMERS</t>
+          <t>EMMETT GUESS</t>
         </is>
       </c>
       <c r="B112" s="0" t="inlineStr">
@@ -5607,35 +6163,40 @@
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>2080.7399999999998</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>2.3100000000000001</t>
+          <t>1154.8</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5600000000000001</t>
         </is>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G112" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H112" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I112" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J112" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5644,37 +6205,37 @@
     <row outlineLevel="0" r="113">
       <c r="A113" s="0" t="inlineStr">
         <is>
-          <t>JAYMIE MCGREIL</t>
+          <t>EL MURFETT</t>
         </is>
       </c>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C113" s="0" t="inlineStr">
         <is>
-          <t>2087.8600000000001</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>2.9100000000000001</t>
+          <t>1152.5799999999999</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.0599999999999996</t>
         </is>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G113" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H113" s="0" t="inlineStr">
@@ -5683,6 +6244,11 @@
         </is>
       </c>
       <c r="I113" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J113" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5691,7 +6257,7 @@
     <row outlineLevel="0" r="114">
       <c r="A114" s="0" t="inlineStr">
         <is>
-          <t>FLORENZA FULLBROOK</t>
+          <t>PATTY TARGE</t>
         </is>
       </c>
       <c r="B114" s="0" t="inlineStr">
@@ -5701,22 +6267,22 @@
       </c>
       <c r="C114" s="0" t="inlineStr">
         <is>
-          <t>2110.4299999999998</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>4.2400000000000002</t>
+          <t>1144.53</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G114" s="0" t="inlineStr">
@@ -5726,19 +6292,24 @@
       </c>
       <c r="H114" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I114" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J114" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="115">
       <c r="A115" s="0" t="inlineStr">
         <is>
-          <t>GRISWOLD GOODBAND</t>
+          <t>LUCKY PASHLER</t>
         </is>
       </c>
       <c r="B115" s="0" t="inlineStr">
@@ -5748,22 +6319,22 @@
       </c>
       <c r="C115" s="0" t="inlineStr">
         <is>
-          <t>2113.8800000000001</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>1137.3299999999999</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.6699999999999999</t>
         </is>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G115" s="0" t="inlineStr">
@@ -5773,10 +6344,15 @@
       </c>
       <c r="H115" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I115" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J115" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5785,32 +6361,32 @@
     <row outlineLevel="0" r="116">
       <c r="A116" s="0" t="inlineStr">
         <is>
-          <t>DAMIANO MASSON</t>
+          <t>CARLYE GLADDIS</t>
         </is>
       </c>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C116" s="0" t="inlineStr">
         <is>
-          <t>2158.23</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D116" s="0" t="inlineStr">
         <is>
-          <t>3.2400000000000002</t>
+          <t>1135.1500000000001</t>
         </is>
       </c>
       <c r="E116" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.6100000000000003</t>
         </is>
       </c>
       <c r="F116" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G116" s="0" t="inlineStr">
@@ -5824,6 +6400,11 @@
         </is>
       </c>
       <c r="I116" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J116" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -5832,7 +6413,7 @@
     <row outlineLevel="0" r="117">
       <c r="A117" s="0" t="inlineStr">
         <is>
-          <t>BENEDETTO CROKER</t>
+          <t>PHIL WADWORTH</t>
         </is>
       </c>
       <c r="B117" s="0" t="inlineStr">
@@ -5842,35 +6423,40 @@
       </c>
       <c r="C117" s="0" t="inlineStr">
         <is>
-          <t>2164.23</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D117" s="0" t="inlineStr">
         <is>
-          <t>5.0700000000000003</t>
+          <t>1125.1500000000001</t>
         </is>
       </c>
       <c r="E117" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.1299999999999999</t>
         </is>
       </c>
       <c r="F117" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G117" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H117" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I117" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J117" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -5879,32 +6465,32 @@
     <row outlineLevel="0" r="118">
       <c r="A118" s="0" t="inlineStr">
         <is>
-          <t>CHRISTIN GILLCRIST</t>
+          <t>HALLI JANJIC</t>
         </is>
       </c>
       <c r="B118" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C118" s="0" t="inlineStr">
         <is>
-          <t>2274.8800000000001</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D118" s="0" t="inlineStr">
         <is>
-          <t>5.2400000000000002</t>
+          <t>1114.3699999999999</t>
         </is>
       </c>
       <c r="E118" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.6100000000000003</t>
         </is>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G118" s="0" t="inlineStr">
@@ -5914,19 +6500,24 @@
       </c>
       <c r="H118" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I118" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J118" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="119">
       <c r="A119" s="0" t="inlineStr">
         <is>
-          <t>BIL GETSHAM</t>
+          <t>EMMALYN DUFFUS</t>
         </is>
       </c>
       <c r="B119" s="0" t="inlineStr">
@@ -5936,27 +6527,27 @@
       </c>
       <c r="C119" s="0" t="inlineStr">
         <is>
-          <t>2280.5700000000002</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D119" s="0" t="inlineStr">
         <is>
-          <t>2.6600000000000001</t>
+          <t>1093.76</t>
         </is>
       </c>
       <c r="E119" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.1499999999999999</t>
         </is>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G119" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H119" s="0" t="inlineStr">
@@ -5967,38 +6558,43 @@
       <c r="I119" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J119" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="120">
       <c r="A120" s="0" t="inlineStr">
         <is>
-          <t>RINA CARNELL</t>
+          <t>KRISTEN CASSIN</t>
         </is>
       </c>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C120" s="0" t="inlineStr">
         <is>
-          <t>2296.4899999999998</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D120" s="0" t="inlineStr">
         <is>
-          <t>4.0300000000000002</t>
+          <t>1092.45</t>
         </is>
       </c>
       <c r="E120" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.8599999999999999</t>
         </is>
       </c>
       <c r="F120" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G120" s="0" t="inlineStr">
@@ -6008,10 +6604,15 @@
       </c>
       <c r="H120" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I120" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J120" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6020,32 +6621,32 @@
     <row outlineLevel="0" r="121">
       <c r="A121" s="0" t="inlineStr">
         <is>
-          <t>REID HENRICHSEN</t>
+          <t>SHARAI TRAIL</t>
         </is>
       </c>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C121" s="0" t="inlineStr">
         <is>
-          <t>2327.3899999999999</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D121" s="0" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>1085.1400000000001</t>
         </is>
       </c>
       <c r="E121" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.2799999999999998</t>
         </is>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G121" s="0" t="inlineStr">
@@ -6055,10 +6656,15 @@
       </c>
       <c r="H121" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I121" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J121" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6067,32 +6673,32 @@
     <row outlineLevel="0" r="122">
       <c r="A122" s="0" t="inlineStr">
         <is>
-          <t>BART OTY</t>
+          <t>TIENA TWEEDY</t>
         </is>
       </c>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C122" s="0" t="inlineStr">
         <is>
-          <t>2343.6700000000001</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>3.8900000000000001</t>
+          <t>1036.1800000000001</t>
         </is>
       </c>
       <c r="E122" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.5199999999999996</t>
         </is>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G122" s="0" t="inlineStr">
@@ -6102,10 +6708,15 @@
       </c>
       <c r="H122" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I122" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J122" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6114,7 +6725,7 @@
     <row outlineLevel="0" r="123">
       <c r="A123" s="0" t="inlineStr">
         <is>
-          <t>THOMA MCPEAKE</t>
+          <t>DANNA PINOCK</t>
         </is>
       </c>
       <c r="B123" s="0" t="inlineStr">
@@ -6124,22 +6735,22 @@
       </c>
       <c r="C123" s="0" t="inlineStr">
         <is>
-          <t>2363.21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D123" s="0" t="inlineStr">
         <is>
-          <t>1.3300000000000001</t>
+          <t>1022.08</t>
         </is>
       </c>
       <c r="E123" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.6100000000000003</t>
         </is>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G123" s="0" t="inlineStr">
@@ -6149,10 +6760,15 @@
       </c>
       <c r="H123" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I123" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J123" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6161,32 +6777,32 @@
     <row outlineLevel="0" r="124">
       <c r="A124" s="0" t="inlineStr">
         <is>
-          <t>RYAN HUITSON</t>
+          <t>JESSICA DUDDING</t>
         </is>
       </c>
       <c r="B124" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C124" s="0" t="inlineStr">
         <is>
-          <t>2363.8600000000001</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D124" s="0" t="inlineStr">
         <is>
-          <t>5.2400000000000002</t>
+          <t>988.99000000000001</t>
         </is>
       </c>
       <c r="E124" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.7200000000000002</t>
         </is>
       </c>
       <c r="F124" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G124" s="0" t="inlineStr">
@@ -6196,10 +6812,15 @@
       </c>
       <c r="H124" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I124" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J124" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6208,7 +6829,7 @@
     <row outlineLevel="0" r="125">
       <c r="A125" s="0" t="inlineStr">
         <is>
-          <t>MARTI PINNIGAR</t>
+          <t>EUGEN DUMPHRY</t>
         </is>
       </c>
       <c r="B125" s="0" t="inlineStr">
@@ -6218,22 +6839,22 @@
       </c>
       <c r="C125" s="0" t="inlineStr">
         <is>
-          <t>2413.0900000000001</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
-          <t>6.3499999999999996</t>
+          <t>947.88999999999999</t>
         </is>
       </c>
       <c r="E125" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.0700000000000001</t>
         </is>
       </c>
       <c r="F125" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G125" s="0" t="inlineStr">
@@ -6247,6 +6868,11 @@
         </is>
       </c>
       <c r="I125" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J125" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6255,22 +6881,22 @@
     <row outlineLevel="0" r="126">
       <c r="A126" s="0" t="inlineStr">
         <is>
-          <t>RAFFERTY BROSKE</t>
+          <t>FIORENZE LARRATT</t>
         </is>
       </c>
       <c r="B126" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C126" s="0" t="inlineStr">
         <is>
-          <t>2439.48</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D126" s="0" t="inlineStr">
         <is>
-          <t>4.2000000000000002</t>
+          <t>929.92999999999995</t>
         </is>
       </c>
       <c r="E126" s="0" t="inlineStr">
@@ -6280,7 +6906,7 @@
       </c>
       <c r="F126" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G126" s="0" t="inlineStr">
@@ -6290,10 +6916,15 @@
       </c>
       <c r="H126" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I126" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J126" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6302,7 +6933,7 @@
     <row outlineLevel="0" r="127">
       <c r="A127" s="0" t="inlineStr">
         <is>
-          <t>TYSON STOVINE</t>
+          <t>TAMAR MCGILLREICH</t>
         </is>
       </c>
       <c r="B127" s="0" t="inlineStr">
@@ -6312,22 +6943,22 @@
       </c>
       <c r="C127" s="0" t="inlineStr">
         <is>
-          <t>2476.8699999999999</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D127" s="0" t="inlineStr">
         <is>
-          <t>5.8300000000000001</t>
+          <t>925.61000000000001</t>
         </is>
       </c>
       <c r="E127" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.0599999999999996</t>
         </is>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G127" s="0" t="inlineStr">
@@ -6337,44 +6968,49 @@
       </c>
       <c r="H127" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I127" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J127" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="128">
       <c r="A128" s="0" t="inlineStr">
         <is>
-          <t>BIRD TRAUT</t>
+          <t>ZACHERIE HALDENBY</t>
         </is>
       </c>
       <c r="B128" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C128" s="0" t="inlineStr">
         <is>
-          <t>2479.27</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D128" s="0" t="inlineStr">
         <is>
-          <t>3.8500000000000001</t>
+          <t>924.19000000000005</t>
         </is>
       </c>
       <c r="E128" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.1899999999999999</t>
         </is>
       </c>
       <c r="F128" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G128" s="0" t="inlineStr">
@@ -6388,6 +7024,11 @@
         </is>
       </c>
       <c r="I128" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J128" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6396,7 +7037,7 @@
     <row outlineLevel="0" r="129">
       <c r="A129" s="0" t="inlineStr">
         <is>
-          <t>CORRI HODGINS</t>
+          <t>PATRICK BOURGEOIS</t>
         </is>
       </c>
       <c r="B129" s="0" t="inlineStr">
@@ -6406,27 +7047,27 @@
       </c>
       <c r="C129" s="0" t="inlineStr">
         <is>
-          <t>2498.1700000000001</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D129" s="0" t="inlineStr">
         <is>
-          <t>6.2999999999999998</t>
+          <t>923.92999999999995</t>
         </is>
       </c>
       <c r="E129" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.4199999999999999</t>
         </is>
       </c>
       <c r="F129" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G129" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H129" s="0" t="inlineStr">
@@ -6436,39 +7077,44 @@
       </c>
       <c r="I129" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J129" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="130">
       <c r="A130" s="0" t="inlineStr">
         <is>
-          <t>DELAINEY KEACH</t>
+          <t>LEIGHTON LYDIATT</t>
         </is>
       </c>
       <c r="B130" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C130" s="0" t="inlineStr">
         <is>
-          <t>2508.5900000000001</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D130" s="0" t="inlineStr">
         <is>
-          <t>3.1299999999999999</t>
+          <t>922.49000000000001</t>
         </is>
       </c>
       <c r="E130" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.2000000000000002</t>
         </is>
       </c>
       <c r="F130" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G130" s="0" t="inlineStr">
@@ -6482,6 +7128,11 @@
         </is>
       </c>
       <c r="I130" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J130" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6490,7 +7141,7 @@
     <row outlineLevel="0" r="131">
       <c r="A131" s="0" t="inlineStr">
         <is>
-          <t>PIETRO GWALTER</t>
+          <t>BARBEY CAIRNEY</t>
         </is>
       </c>
       <c r="B131" s="0" t="inlineStr">
@@ -6500,35 +7151,40 @@
       </c>
       <c r="C131" s="0" t="inlineStr">
         <is>
-          <t>2511.4200000000001</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D131" s="0" t="inlineStr">
         <is>
-          <t>6.6900000000000004</t>
+          <t>874.77999999999997</t>
         </is>
       </c>
       <c r="E131" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.2200000000000002</t>
         </is>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G131" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H131" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I131" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J131" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6537,32 +7193,32 @@
     <row outlineLevel="0" r="132">
       <c r="A132" s="0" t="inlineStr">
         <is>
-          <t>FREEMON CUMBERPATCH</t>
+          <t>RENAUD BROADNICKE</t>
         </is>
       </c>
       <c r="B132" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C132" s="0" t="inlineStr">
         <is>
-          <t>2515.6300000000001</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D132" s="0" t="inlineStr">
         <is>
-          <t>4.5599999999999996</t>
+          <t>872.00999999999999</t>
         </is>
       </c>
       <c r="E132" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="F132" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G132" s="0" t="inlineStr">
@@ -6576,6 +7232,11 @@
         </is>
       </c>
       <c r="I132" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J132" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6584,32 +7245,32 @@
     <row outlineLevel="0" r="133">
       <c r="A133" s="0" t="inlineStr">
         <is>
-          <t>EUSTACE LEYTON</t>
+          <t>DEVONNA LE STRANGE</t>
         </is>
       </c>
       <c r="B133" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C133" s="0" t="inlineStr">
         <is>
-          <t>2520.5900000000001</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D133" s="0" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>842.88999999999999</t>
         </is>
       </c>
       <c r="E133" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.1200000000000001</t>
         </is>
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G133" s="0" t="inlineStr">
@@ -6625,38 +7286,43 @@
       <c r="I133" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J133" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="134">
       <c r="A134" s="0" t="inlineStr">
         <is>
-          <t>BLINNIE GILHESPY</t>
+          <t>HYACINTHIE HALIBURTON</t>
         </is>
       </c>
       <c r="B134" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C134" s="0" t="inlineStr">
         <is>
-          <t>2532.52</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D134" s="0" t="inlineStr">
         <is>
-          <t>3.6699999999999999</t>
+          <t>821.09000000000003</t>
         </is>
       </c>
       <c r="E134" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.2199999999999998</t>
         </is>
       </c>
       <c r="F134" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G134" s="0" t="inlineStr">
@@ -6670,6 +7336,11 @@
         </is>
       </c>
       <c r="I134" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J134" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6678,7 +7349,7 @@
     <row outlineLevel="0" r="135">
       <c r="A135" s="0" t="inlineStr">
         <is>
-          <t>SHELBA SPIGHT</t>
+          <t>SHELLIE LYTLE</t>
         </is>
       </c>
       <c r="B135" s="0" t="inlineStr">
@@ -6688,27 +7359,27 @@
       </c>
       <c r="C135" s="0" t="inlineStr">
         <is>
-          <t>2535.2399999999998</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D135" s="0" t="inlineStr">
         <is>
-          <t>5.0300000000000002</t>
+          <t>809.55999999999995</t>
         </is>
       </c>
       <c r="E135" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.3500000000000001</t>
         </is>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G135" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H135" s="0" t="inlineStr">
@@ -6717,6 +7388,11 @@
         </is>
       </c>
       <c r="I135" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J135" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6725,37 +7401,37 @@
     <row outlineLevel="0" r="136">
       <c r="A136" s="0" t="inlineStr">
         <is>
-          <t>BERTHE GROCOCK</t>
+          <t>BAIRD LAGNE</t>
         </is>
       </c>
       <c r="B136" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C136" s="0" t="inlineStr">
         <is>
-          <t>2560.9699999999998</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D136" s="0" t="inlineStr">
         <is>
-          <t>5.3899999999999997</t>
+          <t>803.75</t>
         </is>
       </c>
       <c r="E136" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.1600000000000001</t>
         </is>
       </c>
       <c r="F136" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G136" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H136" s="0" t="inlineStr">
@@ -6764,6 +7440,11 @@
         </is>
       </c>
       <c r="I136" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J136" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6772,32 +7453,32 @@
     <row outlineLevel="0" r="137">
       <c r="A137" s="0" t="inlineStr">
         <is>
-          <t>DENYS HAUGER</t>
+          <t>AURTHUR WAPPLINGTON</t>
         </is>
       </c>
       <c r="B137" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C137" s="0" t="inlineStr">
         <is>
-          <t>2576.6700000000001</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D137" s="0" t="inlineStr">
         <is>
-          <t>5.4199999999999999</t>
+          <t>802.05999999999995</t>
         </is>
       </c>
       <c r="E137" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5800000000000001</t>
         </is>
       </c>
       <c r="F137" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G137" s="0" t="inlineStr">
@@ -6807,19 +7488,24 @@
       </c>
       <c r="H137" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I137" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J137" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="0" t="inlineStr">
         <is>
-          <t>GILBERTE BENDUHN</t>
+          <t>CHRISTAL BANNON</t>
         </is>
       </c>
       <c r="B138" s="0" t="inlineStr">
@@ -6829,22 +7515,22 @@
       </c>
       <c r="C138" s="0" t="inlineStr">
         <is>
-          <t>2595.6300000000001</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D138" s="0" t="inlineStr">
         <is>
-          <t>4.8300000000000001</t>
+          <t>781.26999999999998</t>
         </is>
       </c>
       <c r="E138" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.3399999999999999</t>
         </is>
       </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G138" s="0" t="inlineStr">
@@ -6858,6 +7544,11 @@
         </is>
       </c>
       <c r="I138" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J138" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6866,7 +7557,7 @@
     <row outlineLevel="0" r="139">
       <c r="A139" s="0" t="inlineStr">
         <is>
-          <t>NIKANIKI DECKER</t>
+          <t>MAX CHRISTOFFERSEN</t>
         </is>
       </c>
       <c r="B139" s="0" t="inlineStr">
@@ -6876,22 +7567,22 @@
       </c>
       <c r="C139" s="0" t="inlineStr">
         <is>
-          <t>2622.4200000000001</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D139" s="0" t="inlineStr">
         <is>
-          <t>6.6600000000000001</t>
+          <t>774.04999999999995</t>
         </is>
       </c>
       <c r="E139" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.7200000000000002</t>
         </is>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G139" s="0" t="inlineStr">
@@ -6907,13 +7598,18 @@
       <c r="I139" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J139" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="0" t="inlineStr">
         <is>
-          <t>LEXINE KINNER</t>
+          <t>ORALIA HICKINBOTTOM</t>
         </is>
       </c>
       <c r="B140" s="0" t="inlineStr">
@@ -6923,22 +7619,22 @@
       </c>
       <c r="C140" s="0" t="inlineStr">
         <is>
-          <t>2624.1199999999999</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>736.04999999999995</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5899999999999999</t>
         </is>
       </c>
       <c r="F140" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G140" s="0" t="inlineStr">
@@ -6952,6 +7648,11 @@
         </is>
       </c>
       <c r="I140" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J140" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -6960,7 +7661,7 @@
     <row outlineLevel="0" r="141">
       <c r="A141" s="0" t="inlineStr">
         <is>
-          <t>AMIE OULNER</t>
+          <t>BROK COKE</t>
         </is>
       </c>
       <c r="B141" s="0" t="inlineStr">
@@ -6970,35 +7671,40 @@
       </c>
       <c r="C141" s="0" t="inlineStr">
         <is>
-          <t>2664.3600000000001</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D141" s="0" t="inlineStr">
         <is>
-          <t>4.6200000000000001</t>
+          <t>725.30999999999995</t>
         </is>
       </c>
       <c r="E141" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.8500000000000001</t>
         </is>
       </c>
       <c r="F141" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G141" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H141" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I141" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J141" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7007,7 +7713,7 @@
     <row outlineLevel="0" r="142">
       <c r="A142" s="0" t="inlineStr">
         <is>
-          <t>DIARMID SCHALL</t>
+          <t>PERCEVAL HUNNAWILL</t>
         </is>
       </c>
       <c r="B142" s="0" t="inlineStr">
@@ -7017,22 +7723,22 @@
       </c>
       <c r="C142" s="0" t="inlineStr">
         <is>
-          <t>2667.0900000000001</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D142" s="0" t="inlineStr">
         <is>
-          <t>6.6699999999999999</t>
+          <t>708.44000000000005</t>
         </is>
       </c>
       <c r="E142" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.2300000000000004</t>
         </is>
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G142" s="0" t="inlineStr">
@@ -7046,6 +7752,11 @@
         </is>
       </c>
       <c r="I142" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J142" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7054,7 +7765,7 @@
     <row outlineLevel="0" r="143">
       <c r="A143" s="0" t="inlineStr">
         <is>
-          <t>EADIE LAIDLAW</t>
+          <t>JERRY AUSIELLO</t>
         </is>
       </c>
       <c r="B143" s="0" t="inlineStr">
@@ -7064,22 +7775,22 @@
       </c>
       <c r="C143" s="0" t="inlineStr">
         <is>
-          <t>2685.2399999999998</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>6.2300000000000004</t>
+          <t>654.28999999999996</t>
         </is>
       </c>
       <c r="E143" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.9099999999999999</t>
         </is>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G143" s="0" t="inlineStr">
@@ -7093,6 +7804,11 @@
         </is>
       </c>
       <c r="I143" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J143" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -7101,32 +7817,32 @@
     <row outlineLevel="0" r="144">
       <c r="A144" s="0" t="inlineStr">
         <is>
-          <t>MANO MCOWEN</t>
+          <t>FREDRA BROCKLEY</t>
         </is>
       </c>
       <c r="B144" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C144" s="0" t="inlineStr">
         <is>
-          <t>2689.3000000000002</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>1.3500000000000001</t>
+          <t>639.05999999999995</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.3600000000000003</t>
         </is>
       </c>
       <c r="F144" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G144" s="0" t="inlineStr">
@@ -7140,6 +7856,11 @@
         </is>
       </c>
       <c r="I144" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J144" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7148,7 +7869,7 @@
     <row outlineLevel="0" r="145">
       <c r="A145" s="0" t="inlineStr">
         <is>
-          <t>NORRI BERNLI</t>
+          <t>AERIELL GLIGORI</t>
         </is>
       </c>
       <c r="B145" s="0" t="inlineStr">
@@ -7158,35 +7879,40 @@
       </c>
       <c r="C145" s="0" t="inlineStr">
         <is>
-          <t>2694.9200000000001</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D145" s="0" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>608.07000000000005</t>
         </is>
       </c>
       <c r="E145" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.6899999999999999</t>
         </is>
       </c>
       <c r="F145" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G145" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H145" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I145" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J145" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7195,7 +7921,7 @@
     <row outlineLevel="0" r="146">
       <c r="A146" s="0" t="inlineStr">
         <is>
-          <t>GAEL ROURKE</t>
+          <t>VIVIENNE PLUM</t>
         </is>
       </c>
       <c r="B146" s="0" t="inlineStr">
@@ -7205,22 +7931,22 @@
       </c>
       <c r="C146" s="0" t="inlineStr">
         <is>
-          <t>2698.6700000000001</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>6.1500000000000004</t>
+          <t>576.09000000000003</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.2000000000000002</t>
         </is>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G146" s="0" t="inlineStr">
@@ -7236,51 +7962,61 @@
       <c r="I146" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J146" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="0" t="inlineStr">
         <is>
-          <t>ROSEMARIE HARWELL</t>
+          <t>IVER BETHUNE</t>
         </is>
       </c>
       <c r="B147" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C147" s="0" t="inlineStr">
         <is>
-          <t>2703.9200000000001</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D147" s="0" t="inlineStr">
         <is>
-          <t>3.1299999999999999</t>
+          <t>546.50999999999999</t>
         </is>
       </c>
       <c r="E147" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.2000000000000002</t>
         </is>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G147" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H147" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I147" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J147" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7289,7 +8025,7 @@
     <row outlineLevel="0" r="148">
       <c r="A148" s="0" t="inlineStr">
         <is>
-          <t>JOCK SLATER</t>
+          <t>KEN ZECCHINELLI</t>
         </is>
       </c>
       <c r="B148" s="0" t="inlineStr">
@@ -7299,22 +8035,22 @@
       </c>
       <c r="C148" s="0" t="inlineStr">
         <is>
-          <t>2708.8800000000001</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D148" s="0" t="inlineStr">
         <is>
-          <t>6.7599999999999998</t>
+          <t>515.76999999999998</t>
         </is>
       </c>
       <c r="E148" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.6600000000000001</t>
         </is>
       </c>
       <c r="F148" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G148" s="0" t="inlineStr">
@@ -7330,13 +8066,18 @@
       <c r="I148" s="0" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+      <c r="J148" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="0" t="inlineStr">
         <is>
-          <t>WILLI RINGWOOD</t>
+          <t>JENILEE ARONOV</t>
         </is>
       </c>
       <c r="B149" s="0" t="inlineStr">
@@ -7346,22 +8087,22 @@
       </c>
       <c r="C149" s="0" t="inlineStr">
         <is>
-          <t>2726.27</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D149" s="0" t="inlineStr">
         <is>
-          <t>2.8900000000000001</t>
+          <t>466.32999999999998</t>
         </is>
       </c>
       <c r="E149" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.7400000000000002</t>
         </is>
       </c>
       <c r="F149" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G149" s="0" t="inlineStr">
@@ -7377,13 +8118,18 @@
       <c r="I149" s="0" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+      <c r="J149" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="0" t="inlineStr">
         <is>
-          <t>BERNARDINE GEHRICKE</t>
+          <t>BARBARAANNE DOERRLING</t>
         </is>
       </c>
       <c r="B150" s="0" t="inlineStr">
@@ -7393,27 +8139,27 @@
       </c>
       <c r="C150" s="0" t="inlineStr">
         <is>
-          <t>2768.0700000000002</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D150" s="0" t="inlineStr">
         <is>
-          <t>5.4800000000000004</t>
+          <t>449.98000000000002</t>
         </is>
       </c>
       <c r="E150" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.6000000000000001</t>
         </is>
       </c>
       <c r="F150" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G150" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H150" s="0" t="inlineStr">
@@ -7422,6 +8168,11 @@
         </is>
       </c>
       <c r="I150" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J150" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7430,7 +8181,7 @@
     <row outlineLevel="0" r="151">
       <c r="A151" s="0" t="inlineStr">
         <is>
-          <t>PIERRE MACDUNLEVY</t>
+          <t>CHRISTAL MCFFADEN</t>
         </is>
       </c>
       <c r="B151" s="0" t="inlineStr">
@@ -7440,22 +8191,22 @@
       </c>
       <c r="C151" s="0" t="inlineStr">
         <is>
-          <t>2825.9299999999998</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D151" s="0" t="inlineStr">
         <is>
+          <t>410.30000000000001</t>
+        </is>
+      </c>
+      <c r="E151" s="0" t="inlineStr">
+        <is>
           <t>5.8099999999999996</t>
         </is>
       </c>
-      <c r="E151" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G151" s="0" t="inlineStr">
@@ -7469,6 +8220,11 @@
         </is>
       </c>
       <c r="I151" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J151" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -7477,37 +8233,37 @@
     <row outlineLevel="0" r="152">
       <c r="A152" s="0" t="inlineStr">
         <is>
-          <t>ROZANNE KINGSNORTH</t>
+          <t>CREIGHT FELDHEIM</t>
         </is>
       </c>
       <c r="B152" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C152" s="0" t="inlineStr">
         <is>
-          <t>2834.6700000000001</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D152" s="0" t="inlineStr">
         <is>
-          <t>5.2800000000000002</t>
+          <t>404.17000000000002</t>
         </is>
       </c>
       <c r="E152" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.0599999999999996</t>
         </is>
       </c>
       <c r="F152" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G152" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H152" s="0" t="inlineStr">
@@ -7516,6 +8272,11 @@
         </is>
       </c>
       <c r="I152" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J152" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7524,7 +8285,7 @@
     <row outlineLevel="0" r="153">
       <c r="A153" s="0" t="inlineStr">
         <is>
-          <t>REG NELMES</t>
+          <t>ALINA EDSON</t>
         </is>
       </c>
       <c r="B153" s="0" t="inlineStr">
@@ -7534,22 +8295,22 @@
       </c>
       <c r="C153" s="0" t="inlineStr">
         <is>
-          <t>2886.75</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D153" s="0" t="inlineStr">
         <is>
-          <t>2.9700000000000002</t>
+          <t>400.33999999999997</t>
         </is>
       </c>
       <c r="E153" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.8999999999999999</t>
         </is>
       </c>
       <c r="F153" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G153" s="0" t="inlineStr">
@@ -7559,19 +8320,24 @@
       </c>
       <c r="H153" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I153" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J153" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="0" t="inlineStr">
         <is>
-          <t>GLADYS CARDENAS</t>
+          <t>TAMI DUNNET</t>
         </is>
       </c>
       <c r="B154" s="0" t="inlineStr">
@@ -7581,22 +8347,22 @@
       </c>
       <c r="C154" s="0" t="inlineStr">
         <is>
-          <t>2926.23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D154" s="0" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>373.75999999999999</t>
         </is>
       </c>
       <c r="E154" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.8600000000000001</t>
         </is>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G154" s="0" t="inlineStr">
@@ -7606,10 +8372,15 @@
       </c>
       <c r="H154" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I154" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J154" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7618,7 +8389,7 @@
     <row outlineLevel="0" r="155">
       <c r="A155" s="0" t="inlineStr">
         <is>
-          <t>AURA MARTEN</t>
+          <t>SIBBIE SPARROWE</t>
         </is>
       </c>
       <c r="B155" s="0" t="inlineStr">
@@ -7628,22 +8399,22 @@
       </c>
       <c r="C155" s="0" t="inlineStr">
         <is>
-          <t>2944.3200000000002</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>3.9500000000000002</t>
+          <t>364.38999999999999</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.5700000000000003</t>
         </is>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G155" s="0" t="inlineStr">
@@ -7653,10 +8424,15 @@
       </c>
       <c r="H155" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="I155" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J155" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7665,32 +8441,32 @@
     <row outlineLevel="0" r="156">
       <c r="A156" s="0" t="inlineStr">
         <is>
-          <t>ARABELLE BALE</t>
+          <t>ROSELINE KILDALE</t>
         </is>
       </c>
       <c r="B156" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C156" s="0" t="inlineStr">
         <is>
-          <t>2945.9499999999998</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>3.4900000000000002</t>
+          <t>349.05000000000001</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.7799999999999998</t>
         </is>
       </c>
       <c r="F156" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G156" s="0" t="inlineStr">
@@ -7704,6 +8480,11 @@
         </is>
       </c>
       <c r="I156" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J156" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7712,32 +8493,32 @@
     <row outlineLevel="0" r="157">
       <c r="A157" s="0" t="inlineStr">
         <is>
-          <t>CARLOTTA AUJEAN</t>
+          <t>ODEY ERSKINE</t>
         </is>
       </c>
       <c r="B157" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C157" s="0" t="inlineStr">
         <is>
-          <t>2964.5300000000002</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>6.0199999999999996</t>
+          <t>347.32999999999998</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.4500000000000002</t>
         </is>
       </c>
       <c r="F157" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G157" s="0" t="inlineStr">
@@ -7753,38 +8534,43 @@
       <c r="I157" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J157" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="0" t="inlineStr">
         <is>
-          <t>ROZELLA REDMAN</t>
+          <t>LAUREN KORBA</t>
         </is>
       </c>
       <c r="B158" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C158" s="0" t="inlineStr">
         <is>
-          <t>2965.0599999999999</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>5.5999999999999996</t>
+          <t>292.31</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.3999999999999999</t>
         </is>
       </c>
       <c r="F158" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G158" s="0" t="inlineStr">
@@ -7800,43 +8586,48 @@
       <c r="I158" s="0" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="J158" s="0" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="0" t="inlineStr">
         <is>
-          <t>SHEFFY FERRERAS</t>
+          <t>JULIUS BATTELL</t>
         </is>
       </c>
       <c r="B159" s="0" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="C159" s="0" t="inlineStr">
         <is>
-          <t>2985.8200000000002</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>3.6499999999999999</t>
+          <t>275.38</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.6900000000000004</t>
         </is>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G159" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H159" s="0" t="inlineStr">
@@ -7845,6 +8636,11 @@
         </is>
       </c>
       <c r="I159" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J159" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7853,37 +8649,37 @@
     <row outlineLevel="0" r="160">
       <c r="A160" s="0" t="inlineStr">
         <is>
-          <t>BERTRANDO ELLICOMBE</t>
+          <t>WINONA EMMINS</t>
         </is>
       </c>
       <c r="B160" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C160" s="0" t="inlineStr">
         <is>
-          <t>2991.3400000000001</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>1.1499999999999999</t>
+          <t>266.20999999999998</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5800000000000001</t>
         </is>
       </c>
       <c r="F160" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G160" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H160" s="0" t="inlineStr">
@@ -7892,6 +8688,11 @@
         </is>
       </c>
       <c r="I160" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J160" s="0" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -7900,32 +8701,32 @@
     <row outlineLevel="0" r="161">
       <c r="A161" s="0" t="inlineStr">
         <is>
-          <t>DELORIA GILLEON</t>
+          <t>RUBEN BELIN</t>
         </is>
       </c>
       <c r="B161" s="0" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Hombre</t>
         </is>
       </c>
       <c r="C161" s="0" t="inlineStr">
         <is>
-          <t>2996.0300000000002</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
-          <t>6.7300000000000004</t>
+          <t>261.19999999999999</t>
         </is>
       </c>
       <c r="E161" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F161" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G161" s="0" t="inlineStr">
@@ -7935,19 +8736,24 @@
       </c>
       <c r="H161" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I161" s="0" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J161" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="162">
       <c r="A162" s="0" t="inlineStr">
         <is>
-          <t>BELINDA PARKIN</t>
+          <t>AGUISTIN SPERA</t>
         </is>
       </c>
       <c r="B162" s="0" t="inlineStr">
@@ -7957,22 +8763,22 @@
       </c>
       <c r="C162" s="0" t="inlineStr">
         <is>
-          <t>2997.1500000000001</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>1.6699999999999999</t>
+          <t>255.94</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5.3499999999999996</t>
         </is>
       </c>
       <c r="F162" s="0" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G162" s="0" t="inlineStr">
@@ -7986,6 +8792,11 @@
         </is>
       </c>
       <c r="I162" s="0" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J162" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
